--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangguangyong/IdeaProjects/zodiac-parent/zodiac-component-parent/zodiac-component-office/src/test/resources/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="2">
@@ -130,11 +130,15 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>zhangsan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -540,11 +544,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.83203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
+    <col min="5" max="16384" style="1" width="10.83203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -573,6 +577,46 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">

--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangguangyong/IdeaProjects/zodiac-parent/zodiac-component-parent/zodiac-component-office/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3F013791-796B-574E-8815-832730E26004}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367733-08B7-44EA-A853-4AA68EB4F117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16140" xr2:uid="{D00123F4-CAAB-764B-A68A-82E5608A57AE}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,177 +20,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
   <si>
     <t>姓名</t>
-    <rPh sb="0" eb="2">
-      <t>nia'ling</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <rPh sb="0" eb="2">
-      <t>nian'ling</t>
-    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <rPh sb="0" eb="2">
-      <t>xing'bie</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生</t>
-    <rPh sb="0" eb="2">
-      <t>sheng'ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{users.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{users.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{users.sex}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{users.birthday}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF92D050"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>格式3</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ge'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF92D050"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,25 +139,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -240,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -256,7 +198,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -268,7 +210,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -285,7 +227,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -315,29 +257,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -367,23 +292,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,103 +443,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA39ABC6-DDB3-014F-AE50-673C45A3C004}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="20.83203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
-    <col min="5" max="16384" style="1" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367733-08B7-44EA-A853-4AA68EB4F117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477258A9-7091-4B30-AB79-B6F6B87D0945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,26 @@
   </si>
   <si>
     <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,6 +520,31 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
+++ b/zodiac-component-parent/zodiac-component-office/src/test/resources/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477258A9-7091-4B30-AB79-B6F6B87D0945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E37F3FC-73C8-45C9-85E5-7167814130CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,12 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,6 +558,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
